--- a/filtered_data_columnas_explicacion.xlsx
+++ b/filtered_data_columnas_explicacion.xlsx
@@ -1,20 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victormontaluisa/Desktop/LOCAL CAPACITACION 2024/LOCAL KEEPCODING IA/ENTREGA PRACTICAS/004DL/practica_final_DL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D197C4E-D567-BB4B-9D4A-24C7AF4C671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5140" yWindow="2640" windowWidth="31780" windowHeight="25000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$73</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Victor Hugo Montaluisa I.</author>
+  </authors>
+  <commentList>
+    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{C47C6E90-6C2C-4D47-9AA5-54DFE566D49D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Victor Hugo Montaluisa I.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ES EL 1% DE NULOS yla mayotia son f 66%</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="171">
   <si>
     <t>Columnas</t>
   </si>
@@ -452,13 +504,88 @@
   </si>
   <si>
     <t>Promedio de reseñas por mes de la propiedad.</t>
+  </si>
+  <si>
+    <t>ELIMINAR</t>
+  </si>
+  <si>
+    <t>CATEGORICA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>VACIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTO </t>
+  </si>
+  <si>
+    <t>convertir a fecha y convertirle a dias</t>
+  </si>
+  <si>
+    <t>PROCESADO</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>COMPLETAR VACIOS</t>
+  </si>
+  <si>
+    <t>Sin ubicación</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>No disponible</t>
+  </si>
+  <si>
+    <t>quitar  %  y cambiar a numerico</t>
+  </si>
+  <si>
+    <t>[moda]</t>
+  </si>
+  <si>
+    <t>[promedio]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambiar a 'T': 1, 'F': 0 </t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>crecar columasn por los valores ['email', 'phone', 'work_email']</t>
+  </si>
+  <si>
+    <t>convertirr a  codezip</t>
+  </si>
+  <si>
+    <t>ELIMINAR _antes entrenamiento</t>
+  </si>
+  <si>
+    <t>one_hot_one</t>
+  </si>
+  <si>
+    <t>outliers</t>
+  </si>
+  <si>
+    <t>[validar moda  o  medio]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +600,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -510,10 +650,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,13 +686,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -565,7 +738,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -599,6 +772,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -633,9 +807,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -808,598 +983,2814 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O74" sqref="O74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="6" customWidth="1"/>
+    <col min="6" max="8" width="14.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="6"/>
+    <col min="10" max="13" width="16.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:25" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="C28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="C34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+    </row>
+    <row r="35" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+    </row>
+    <row r="36" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="C36" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+    </row>
+    <row r="37" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+    </row>
+    <row r="38" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="C38" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="39" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+    </row>
+    <row r="40" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+    </row>
+    <row r="42" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+    </row>
+    <row r="43" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+    </row>
+    <row r="44" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="45" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+    </row>
+    <row r="46" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+    </row>
+    <row r="47" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+    </row>
+    <row r="48" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="C48" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+    </row>
+    <row r="52" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+    </row>
+    <row r="53" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+    </row>
+    <row r="54" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+    </row>
+    <row r="55" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+    </row>
+    <row r="56" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+    </row>
+    <row r="57" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="C57" s="8"/>
+      <c r="D57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+    </row>
+    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+    </row>
+    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+    </row>
+    <row r="60" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+    </row>
+    <row r="61" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+    </row>
+    <row r="62" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+    </row>
+    <row r="63" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="C63" s="8"/>
+      <c r="D63" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+    </row>
+    <row r="64" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="C64" s="8"/>
+      <c r="D64" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+    </row>
+    <row r="65" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+    </row>
+    <row r="66" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="C66" s="8"/>
+      <c r="D66" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+    </row>
+    <row r="67" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="C68" s="8"/>
+      <c r="D68" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+    </row>
+    <row r="69" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+    </row>
+    <row r="70" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="C70" s="8"/>
+      <c r="D70" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+    </row>
+    <row r="71" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="C71" s="8"/>
+      <c r="D71" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+    </row>
+    <row r="72" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="C72" s="8"/>
+      <c r="D72" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+    </row>
+    <row r="73" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P73" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="N"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/filtered_data_columnas_explicacion.xlsx
+++ b/filtered_data_columnas_explicacion.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victormontaluisa/Desktop/LOCAL CAPACITACION 2024/LOCAL KEEPCODING IA/ENTREGA PRACTICAS/004DL/practica_final_DL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D197C4E-D567-BB4B-9D4A-24C7AF4C671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F0FCE3-15F5-6543-BE39-32572A9BB3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="2640" windowWidth="31780" windowHeight="25000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="2640" windowWidth="36120" windowHeight="25400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$90</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -28,7 +29,7 @@
     <author>Victor Hugo Montaluisa I.</author>
   </authors>
   <commentList>
-    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{C47C6E90-6C2C-4D47-9AA5-54DFE566D49D}">
+    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{C47C6E90-6C2C-4D47-9AA5-54DFE566D49D}">
       <text>
         <r>
           <rPr>
@@ -61,12 +62,46 @@
         </r>
       </text>
     </comment>
+    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{E7AAF47F-2C45-4B42-84BA-F787523543D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Victor Hugo Montaluisa I.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ELiminar porque ya tenemos ubicacoiones exactas con p_zipcode, p_zity
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="189">
   <si>
     <t>Columnas</t>
   </si>
@@ -533,9 +568,6 @@
     <t>PROCESADO</t>
   </si>
   <si>
-    <t>dummy</t>
-  </si>
-  <si>
     <t>COMPLETAR VACIOS</t>
   </si>
   <si>
@@ -569,23 +601,80 @@
     <t>convertirr a  codezip</t>
   </si>
   <si>
-    <t>ELIMINAR _antes entrenamiento</t>
-  </si>
-  <si>
     <t>one_hot_one</t>
   </si>
   <si>
     <t>outliers</t>
   </si>
   <si>
-    <t>[validar moda  o  medio]</t>
+    <t>ELIMINAR _ antes entrenamiento</t>
+  </si>
+  <si>
+    <t>finalizado</t>
+  </si>
+  <si>
+    <t>p_price</t>
+  </si>
+  <si>
+    <t>p_host_since</t>
+  </si>
+  <si>
+    <t>p_first_review</t>
+  </si>
+  <si>
+    <t>p_last_review</t>
+  </si>
+  <si>
+    <t>[media]</t>
+  </si>
+  <si>
+    <t>[ moda]</t>
+  </si>
+  <si>
+    <t>p_host_response_rate</t>
+  </si>
+  <si>
+    <t>p_host_acceptance_rate</t>
+  </si>
+  <si>
+    <t>p_zipcode</t>
+  </si>
+  <si>
+    <t>p_country_code</t>
+  </si>
+  <si>
+    <t>p_city</t>
+  </si>
+  <si>
+    <t>p_host_verifications_xxx</t>
+  </si>
+  <si>
+    <t>p_host_location_xxx</t>
+  </si>
+  <si>
+    <t>p__zipcode_xx</t>
+  </si>
+  <si>
+    <t>p_property_type</t>
+  </si>
+  <si>
+    <t>p_room_type</t>
+  </si>
+  <si>
+    <t>p_bathrooms_text</t>
+  </si>
+  <si>
+    <t>p_host_response_time</t>
+  </si>
+  <si>
+    <t>p_host_neighbourhood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,13 +703,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC5A332"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -650,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -674,10 +775,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,11 +1102,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:X90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O74" sqref="O74"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -999,15 +1118,16 @@
     <col min="3" max="3" width="7" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="6" customWidth="1"/>
-    <col min="6" max="8" width="14.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="6"/>
-    <col min="10" max="13" width="16.5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="20.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="6"/>
+    <col min="9" max="12" width="16.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="6" customWidth="1"/>
+    <col min="16" max="17" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,36 +1147,36 @@
         <v>153</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="I1" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="J1" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>165</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>156</v>
+      <c r="N1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q1" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="Q1" s="9"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1064,9 +1184,8 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1089,11 +1208,11 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1101,9 +1220,8 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1119,16 +1237,16 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="2"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1136,9 +1254,8 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1154,16 +1271,16 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="2"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1171,9 +1288,8 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1189,16 +1305,16 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="2"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1206,9 +1322,8 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1224,16 +1339,16 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="2"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1241,9 +1356,8 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1259,16 +1373,16 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1276,9 +1390,8 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1299,13 +1412,13 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="2"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1313,9 +1426,8 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1331,16 +1443,16 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="2"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1348,9 +1460,8 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1366,16 +1477,16 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1383,38 +1494,31 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="2"/>
+      <c r="P11" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="9"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1422,14 +1526,13 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="5" t="s">
@@ -1438,24 +1541,26 @@
       <c r="E12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="F12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="2"/>
+      <c r="M12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q12" s="9"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1463,40 +1568,33 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="2"/>
+      <c r="M13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q13" s="9"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1504,14 +1602,13 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="5" t="s">
@@ -1521,19 +1618,27 @@
         <v>148</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="O14" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="9"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1541,40 +1646,39 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="2"/>
+      <c r="M15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1582,40 +1686,33 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-    </row>
-    <row r="16" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="2"/>
+      <c r="N16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="9"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1623,14 +1720,13 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="5" t="s">
@@ -1640,23 +1736,25 @@
         <v>148</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
-        <v>149</v>
+      <c r="N17" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="9"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1664,34 +1762,33 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-    </row>
-    <row r="18" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="2"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" s="9"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1699,18 +1796,17 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-    </row>
-    <row r="19" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>148</v>
@@ -1718,15 +1814,22 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="2"/>
+      <c r="I19" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q19" s="9"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -1734,40 +1837,33 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="2"/>
+      <c r="M20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="9"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -1775,14 +1871,13 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="5" t="s">
@@ -1794,17 +1889,22 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="2"/>
+      <c r="M21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="9"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -1812,14 +1912,13 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="5" t="s">
@@ -1832,16 +1931,22 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
-        <v>149</v>
+      <c r="M22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="2"/>
+      <c r="P22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q22" s="9"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -1849,38 +1954,33 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="2"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -1888,38 +1988,33 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-    </row>
-    <row r="24" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="5"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="2"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -1927,38 +2022,33 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-    </row>
-    <row r="25" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5" t="s">
-        <v>149</v>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="2"/>
+      <c r="P25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="9"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -1966,34 +2056,41 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-    </row>
-    <row r="26" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="2"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="9"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -2001,18 +2098,17 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-    </row>
-    <row r="27" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>148</v>
@@ -2020,15 +2116,17 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="2"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -2036,20 +2134,17 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-    </row>
-    <row r="28" spans="1:25" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>149</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>148</v>
@@ -2057,15 +2152,17 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="2"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -2073,22 +2170,15 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-    </row>
-    <row r="29" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2099,14 +2189,10 @@
       <c r="M29" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="2"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -2114,14 +2200,13 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-    </row>
-    <row r="30" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="5" t="s">
@@ -2135,19 +2220,21 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30" s="2"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q30" s="9"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -2155,14 +2242,13 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-    </row>
-    <row r="31" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="5" t="s">
@@ -2172,21 +2258,23 @@
         <v>148</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="2"/>
+      <c r="P31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q31" s="9"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -2194,14 +2282,13 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="5" t="s">
@@ -2211,21 +2298,23 @@
         <v>148</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="2"/>
+      <c r="P32" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="9"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -2233,36 +2322,33 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-    </row>
-    <row r="33" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="2"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -2270,18 +2356,15 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-    </row>
-    <row r="34" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>149</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="5" t="s">
         <v>149</v>
       </c>
@@ -2290,16 +2373,16 @@
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="2"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -2307,38 +2390,35 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-    </row>
-    <row r="35" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="D35" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="2"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -2346,36 +2426,33 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-    </row>
-    <row r="36" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>148</v>
-      </c>
+    </row>
+    <row r="36" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="G36" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="2"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q36" s="9"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -2383,38 +2460,35 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-    </row>
-    <row r="37" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>109</v>
-      </c>
+    </row>
+    <row r="37" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="3"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="G37" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q37" s="9"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -2422,36 +2496,33 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-    </row>
-    <row r="38" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>148</v>
-      </c>
+    </row>
+    <row r="38" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="M38" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="2"/>
+      <c r="O38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q38" s="9"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -2459,38 +2530,33 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-    </row>
-    <row r="39" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>111</v>
-      </c>
+    </row>
+    <row r="39" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q39" s="9"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -2498,14 +2564,13 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-    </row>
-    <row r="40" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="5" t="s">
@@ -2520,14 +2585,20 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="2"/>
+      <c r="L40" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q40" s="9"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -2535,14 +2606,13 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-    </row>
-    <row r="41" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="5" t="s">
@@ -2557,14 +2627,20 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="2"/>
+      <c r="L41" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q41" s="9"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -2572,36 +2648,33 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-    </row>
-    <row r="42" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N42" s="5"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="2"/>
+      <c r="P42" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q42" s="9"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -2609,14 +2682,13 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-    </row>
-    <row r="43" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="5" t="s">
@@ -2626,19 +2698,25 @@
         <v>148</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="2"/>
+      <c r="M43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q43" s="9"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -2646,36 +2724,33 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-    </row>
-    <row r="44" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N44" s="5"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="2"/>
+      <c r="P44" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q44" s="9"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -2683,14 +2758,13 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-    </row>
-    <row r="45" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="5" t="s">
@@ -2700,19 +2774,25 @@
         <v>148</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="2"/>
+      <c r="M45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q45" s="9"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -2720,14 +2800,13 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-    </row>
-    <row r="46" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="5" t="s">
@@ -2743,13 +2822,13 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N46" s="5"/>
       <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="2"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -2757,36 +2836,35 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-    </row>
-    <row r="47" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="D47" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="2"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
@@ -2794,36 +2872,31 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-    </row>
-    <row r="48" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="G48" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="M48" s="5"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="2"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q48" s="9"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
@@ -2831,14 +2904,13 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-    </row>
-    <row r="49" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="5" t="s">
@@ -2848,21 +2920,25 @@
         <v>148</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="G49" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="2"/>
+      <c r="M49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q49" s="9"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
@@ -2870,36 +2946,35 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-    </row>
-    <row r="50" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="D50" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="2"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
@@ -2907,14 +2982,13 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-    </row>
-    <row r="51" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="5" t="s">
@@ -2930,13 +3004,15 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5" t="s">
-        <v>149</v>
+      <c r="M51" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="2"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -2944,36 +3020,35 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-    </row>
-    <row r="52" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="D52" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="2"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -2981,14 +3056,13 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-    </row>
-    <row r="53" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="5" t="s">
@@ -3004,13 +3078,14 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="2"/>
+      <c r="M53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q53" s="9"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
@@ -3018,34 +3093,31 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-    </row>
-    <row r="54" spans="1:25" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="2"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -3053,14 +3125,13 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-    </row>
-    <row r="55" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="5" t="s">
@@ -3076,13 +3147,13 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N55" s="5"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="2"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -3090,14 +3161,13 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-    </row>
-    <row r="56" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="5" t="s">
@@ -3113,13 +3183,13 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N56" s="5"/>
       <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="2"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -3127,14 +3197,13 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-    </row>
-    <row r="57" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="5" t="s">
@@ -3150,13 +3219,13 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N57" s="5"/>
       <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="2"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
@@ -3164,14 +3233,13 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-    </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="5" t="s">
@@ -3180,24 +3248,20 @@
       <c r="E58" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="2"/>
+      <c r="M58" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
@@ -3205,14 +3269,13 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-    </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="5" t="s">
@@ -3221,24 +3284,20 @@
       <c r="E59" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="2"/>
+      <c r="M59" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -3246,14 +3305,13 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-    </row>
-    <row r="60" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="5" t="s">
@@ -3269,15 +3327,13 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="2"/>
+      <c r="M60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
@@ -3285,14 +3341,13 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-    </row>
-    <row r="61" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="5" t="s">
@@ -3308,15 +3363,13 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="2"/>
+      <c r="M61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
@@ -3324,14 +3377,13 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-    </row>
-    <row r="62" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="5" t="s">
@@ -3347,15 +3399,13 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="2"/>
+      <c r="M62" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
@@ -3363,38 +3413,35 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-    </row>
-    <row r="63" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="D63" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
@@ -3402,14 +3449,13 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-    </row>
-    <row r="64" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="5" t="s">
@@ -3422,18 +3468,20 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="J64" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="2"/>
+      <c r="M64" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q64" s="9"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
@@ -3441,14 +3489,13 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-    </row>
-    <row r="65" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="5" t="s">
@@ -3464,15 +3511,13 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="2"/>
+      <c r="M65" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -3480,14 +3525,13 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-    </row>
-    <row r="66" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="5" t="s">
@@ -3503,15 +3547,13 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="2"/>
+      <c r="M66" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
@@ -3519,18 +3561,17 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-    </row>
-    <row r="67" spans="1:25" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>148</v>
@@ -3538,15 +3579,17 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="2"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
@@ -3554,14 +3597,13 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-    </row>
-    <row r="68" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="5" t="s">
@@ -3575,17 +3617,15 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N68" s="5"/>
       <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="2"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
@@ -3593,36 +3633,33 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-    </row>
-    <row r="69" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>148</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="2"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
@@ -3630,14 +3667,13 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-    </row>
-    <row r="70" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="5" t="s">
@@ -3653,13 +3689,13 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M70" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N70" s="5"/>
       <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="2"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -3667,14 +3703,13 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-    </row>
-    <row r="71" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="5" t="s">
@@ -3690,13 +3725,13 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M71" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N71" s="5"/>
       <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="2"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
@@ -3704,14 +3739,13 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-    </row>
-    <row r="72" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="5" t="s">
@@ -3727,13 +3761,13 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="M72" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N72" s="5"/>
       <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="2"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
@@ -3741,22 +3775,15 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-    </row>
-    <row r="73" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B73" s="3"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -3764,15 +3791,17 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O73" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="2"/>
+      <c r="M73" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="O73" s="5"/>
+      <c r="P73" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q73" s="9"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -3780,17 +3809,667 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
+    </row>
+    <row r="74" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N75" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O75" s="5"/>
+      <c r="P75" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+    </row>
+    <row r="76" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P76" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+    </row>
+    <row r="77" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O77" s="5"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+    </row>
+    <row r="78" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O78" s="5"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+    </row>
+    <row r="79" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O79" s="5"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+    </row>
+    <row r="80" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O80" s="5"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+    </row>
+    <row r="81" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O81" s="5"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+    </row>
+    <row r="82" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O82" s="5"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+    </row>
+    <row r="83" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O83" s="5"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+    </row>
+    <row r="84" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+    </row>
+    <row r="85" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+    </row>
+    <row r="86" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+    </row>
+    <row r="87" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+    </row>
+    <row r="88" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+    </row>
+    <row r="89" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+    </row>
+    <row r="90" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O90" s="5"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P73" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="N"/>
-      </filters>
+  <autoFilter ref="A1:Q90" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="13">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C8D046-1C32-8A45-BD70-BB91BDDAF259}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/filtered_data_columnas_explicacion.xlsx
+++ b/filtered_data_columnas_explicacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victormontaluisa/Desktop/LOCAL CAPACITACION 2024/LOCAL KEEPCODING IA/ENTREGA PRACTICAS/004DL/practica_final_DL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F0FCE3-15F5-6543-BE39-32572A9BB3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8286110-6BF5-C949-9EBA-685171679FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="2640" windowWidth="36120" windowHeight="25400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="1680" windowWidth="36120" windowHeight="25400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$90</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="189">
   <si>
     <t>Columnas</t>
   </si>
@@ -631,9 +643,6 @@
     <t>[ moda]</t>
   </si>
   <si>
-    <t>p_host_response_rate</t>
-  </si>
-  <si>
     <t>p_host_acceptance_rate</t>
   </si>
   <si>
@@ -652,9 +661,6 @@
     <t>p_host_location_xxx</t>
   </si>
   <si>
-    <t>p__zipcode_xx</t>
-  </si>
-  <si>
     <t>p_property_type</t>
   </si>
   <si>
@@ -668,6 +674,12 @@
   </si>
   <si>
     <t>p_host_neighbourhood</t>
+  </si>
+  <si>
+    <t>p_phost_response_rate</t>
+  </si>
+  <si>
+    <t>p_p_zipcode_xx</t>
   </si>
 </sst>
 </file>
@@ -1101,14 +1113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N77" sqref="N77"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1196,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1221,7 +1232,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1255,7 +1266,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1300,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1334,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1368,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1402,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +1438,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +1472,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1506,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>171</v>
       </c>
@@ -1527,7 +1538,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1569,9 +1580,9 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
@@ -1689,7 +1700,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
@@ -1765,7 +1776,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
@@ -1797,7 +1808,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1851,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
@@ -1872,7 +1883,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1966,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1989,7 +2000,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -2025,7 +2036,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
@@ -2099,7 +2110,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -2135,7 +2146,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2171,9 +2182,9 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
@@ -2201,7 +2212,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
@@ -2243,7 +2254,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
@@ -2283,7 +2294,7 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -2323,7 +2334,7 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
@@ -2357,7 +2368,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -2391,7 +2402,7 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -2427,9 +2438,9 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
@@ -2461,9 +2472,9 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="8"/>
@@ -2497,9 +2508,9 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
@@ -2531,9 +2542,9 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
@@ -2565,7 +2576,7 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -2607,7 +2618,7 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>30</v>
       </c>
@@ -2649,9 +2660,9 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
@@ -2683,7 +2694,7 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
@@ -2725,9 +2736,9 @@
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
@@ -2759,7 +2770,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>32</v>
       </c>
@@ -2801,7 +2812,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>33</v>
       </c>
@@ -2837,7 +2848,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -2873,9 +2884,9 @@
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="8"/>
@@ -2905,7 +2916,7 @@
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>35</v>
       </c>
@@ -2947,7 +2958,7 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>36</v>
       </c>
@@ -3021,7 +3032,7 @@
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>38</v>
       </c>
@@ -3057,7 +3068,7 @@
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>39</v>
       </c>
@@ -3094,7 +3105,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>170</v>
       </c>
@@ -3126,7 +3137,7 @@
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>40</v>
       </c>
@@ -3162,7 +3173,7 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>41</v>
       </c>
@@ -3198,7 +3209,7 @@
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>42</v>
       </c>
@@ -3234,7 +3245,7 @@
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>43</v>
       </c>
@@ -3270,7 +3281,7 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>44</v>
       </c>
@@ -3306,7 +3317,7 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
@@ -3342,7 +3353,7 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
@@ -3378,7 +3389,7 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
     </row>
-    <row r="62" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>47</v>
       </c>
@@ -3414,7 +3425,7 @@
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>48</v>
       </c>
@@ -3450,7 +3461,7 @@
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
     </row>
-    <row r="64" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>49</v>
       </c>
@@ -3490,7 +3501,7 @@
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
     </row>
-    <row r="65" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>50</v>
       </c>
@@ -3526,7 +3537,7 @@
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>51</v>
       </c>
@@ -3562,7 +3573,7 @@
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
     </row>
-    <row r="67" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>52</v>
       </c>
@@ -3598,7 +3609,7 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
     </row>
-    <row r="68" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>53</v>
       </c>
@@ -3634,7 +3645,7 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
     </row>
-    <row r="69" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>54</v>
       </c>
@@ -3668,7 +3679,7 @@
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
     </row>
-    <row r="70" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>55</v>
       </c>
@@ -3704,7 +3715,7 @@
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
     </row>
-    <row r="71" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3740,7 +3751,7 @@
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
     </row>
-    <row r="72" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>57</v>
       </c>
@@ -3810,7 +3821,7 @@
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
     </row>
-    <row r="74" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
@@ -3885,7 +3896,7 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
     </row>
-    <row r="76" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>59</v>
       </c>
@@ -3950,11 +3961,13 @@
       <c r="M77" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="12" t="s">
         <v>160</v>
       </c>
       <c r="O77" s="5"/>
-      <c r="P77" s="9"/>
+      <c r="P77" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="Q77" s="9"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
@@ -3988,11 +4001,13 @@
       <c r="M78" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="12" t="s">
         <v>160</v>
       </c>
       <c r="O78" s="5"/>
-      <c r="P78" s="9"/>
+      <c r="P78" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="Q78" s="9"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
@@ -4026,11 +4041,13 @@
       <c r="M79" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="12" t="s">
         <v>160</v>
       </c>
       <c r="O79" s="5"/>
-      <c r="P79" s="9"/>
+      <c r="P79" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="Q79" s="9"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
@@ -4064,11 +4081,13 @@
       <c r="M80" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="12" t="s">
         <v>160</v>
       </c>
       <c r="O80" s="5"/>
-      <c r="P80" s="9"/>
+      <c r="P80" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="Q80" s="9"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
@@ -4102,11 +4121,13 @@
       <c r="M81" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="12" t="s">
         <v>160</v>
       </c>
       <c r="O81" s="5"/>
-      <c r="P81" s="9"/>
+      <c r="P81" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="Q81" s="9"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
@@ -4140,11 +4161,13 @@
       <c r="M82" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="12" t="s">
         <v>160</v>
       </c>
       <c r="O82" s="5"/>
-      <c r="P82" s="9"/>
+      <c r="P82" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="Q82" s="9"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
@@ -4178,11 +4201,13 @@
       <c r="M83" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="12" t="s">
         <v>160</v>
       </c>
       <c r="O83" s="5"/>
-      <c r="P83" s="9"/>
+      <c r="P83" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="Q83" s="9"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
@@ -4192,7 +4217,7 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
     </row>
-    <row r="84" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>67</v>
       </c>
@@ -4226,7 +4251,7 @@
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>68</v>
       </c>
@@ -4266,7 +4291,7 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
     </row>
-    <row r="86" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>69</v>
       </c>
@@ -4302,7 +4327,7 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>70</v>
       </c>
@@ -4338,7 +4363,7 @@
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
     </row>
-    <row r="88" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>71</v>
       </c>
@@ -4374,7 +4399,7 @@
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
     </row>
-    <row r="89" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>72</v>
       </c>
@@ -4434,11 +4459,13 @@
       <c r="M90" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="12" t="s">
         <v>160</v>
       </c>
       <c r="O90" s="5"/>
-      <c r="P90" s="9"/>
+      <c r="P90" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="Q90" s="9"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
@@ -4449,13 +4476,6 @@
       <c r="X90" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q90" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
